--- a/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,88</t>
+          <t>7,56; 7,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,7</t>
+          <t>7,36; 7,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,75</t>
+          <t>7,52; 7,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,25</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,41</t>
+          <t>7,15; 7,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,37</t>
+          <t>7,11; 7,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,36</t>
+          <t>7,16; 7,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>7,08</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,2</t>
+          <t>7,01; 7,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,15</t>
+          <t>6,99; 7,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,15</t>
+          <t>7,03; 7,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,12</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,25</t>
+          <t>6,92; 7,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,04</t>
+          <t>6,9; 7,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,13</t>
+          <t>6,95; 7,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>6,85</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,06</t>
+          <t>6,88; 7,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 6,82</t>
+          <t>6,65; 6,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 6,92</t>
+          <t>6,8; 6,91</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>6,68</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,04</t>
+          <t>6,84; 7,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 6,85</t>
+          <t>6,16; 6,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 6,91</t>
+          <t>6,36; 6,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,19</t>
+          <t>6,87; 7,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,03</t>
+          <t>6,73; 6,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,09</t>
+          <t>6,82; 6,98</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,18</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 7,42</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 7,01</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 7,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,9</t>
+          <t>7,54; 7,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,76</t>
+          <t>7,51; 7,75</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,39</t>
+          <t>7,16; 7,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,35</t>
+          <t>7,12; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,33</t>
+          <t>7,17; 7,35</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,14</t>
+          <t>7,02; 7,15</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,64</t>
+          <t>6,93; 7,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,03</t>
+          <t>6,89; 7,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,43</t>
+          <t>6,94; 7,47</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,81</t>
+          <t>6,66; 6,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 6,91</t>
+          <t>6,79; 6,91</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 6,83</t>
+          <t>6,2; 6,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 6,94</t>
+          <t>6,73; 6,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 6,98</t>
+          <t>6,81; 6,97</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,42</t>
+          <t>7,1; 7,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,01</t>
+          <t>6,77; 7,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,15</t>
+          <t>6,97; 7,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
+          <t>Número medio de horas que duerme habitualmente al día entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
